--- a/sims/source/temperature_profile.xlsx
+++ b/sims/source/temperature_profile.xlsx
@@ -2556,7 +2556,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2997,7 +2996,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3078,7 +3076,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4269,7 +4266,7 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4280,17 +4277,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21.628806109025501</v>
       </c>
@@ -4375,7 +4372,7 @@
         <v>31.260701113357612</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>21.812493984021501</v>
       </c>
@@ -4420,7 +4417,7 @@
         <v>31.37334814892094</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>21.805756088170099</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>31.629174746944933</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>22.089710270478299</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>31.975131144262988</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22.4643051945968</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>31.966800292583123</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>22.354894600057701</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>32.804899009844846</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>22.7779382038694</v>
       </c>
@@ -4645,7 +4642,7 @@
         <v>33.919957802234862</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>29.108351782333798</v>
       </c>
@@ -4690,10 +4687,10 @@
         <v>42.189976577790603</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ref="A13:A20" si="4">A$10-A3</f>
         <v>7.4795456733082979</v>
@@ -4753,7 +4750,7 @@
         <v>2.1569544710751698</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>7.2958577983122979</v>
@@ -4787,7 +4784,7 @@
         <v>1.8920460743735299</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>7.3025956941636991</v>
@@ -4821,7 +4818,7 @@
         <v>1.71976128597555</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>7.018641511855499</v>
@@ -4855,7 +4852,7 @@
         <v>1.5143260499887701</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>6.6440465877369981</v>
@@ -4889,7 +4886,7 @@
         <v>1.1634421022235</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>6.7534571822760974</v>
@@ -4923,7 +4920,7 @@
         <v>0.81212179548881702</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>6.3304135784643982</v>
@@ -4957,7 +4954,7 @@
         <v>0.460698816055442</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4991,7 +4988,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>A13/MAX(A$13:A$20)</f>
         <v>1</v>
@@ -5051,7 +5048,7 @@
         <v>2.1569544710751698</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ref="A25:A31" si="12">A14/MAX(A$13:A$20)</f>
         <v>0.97544130579327659</v>
@@ -5085,7 +5082,7 @@
         <v>1.8920460743735299</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="12"/>
         <v>0.97634214872487946</v>
@@ -5119,7 +5116,7 @@
         <v>1.71976128597555</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="12"/>
         <v>0.93837805375029748</v>
@@ -5153,7 +5150,7 @@
         <v>1.5143260499887701</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="12"/>
         <v>0.88829547648156171</v>
@@ -5187,7 +5184,7 @@
         <v>1.1634421022235</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="12"/>
         <v>0.90292344979945249</v>
@@ -5221,7 +5218,7 @@
         <v>0.81212179548881702</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="12"/>
         <v>0.84636338287969515</v>
@@ -5255,7 +5252,7 @@
         <v>0.460698816055442</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5289,7 +5286,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C35" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -5297,12 +5294,12 @@
         <v>14.603999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A24</f>
         <v>1</v>
@@ -5328,7 +5325,7 @@
         <v>21.637734434925228</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ref="A39:B39" si="24">A25</f>
         <v>0.97544130579327659</v>
@@ -5354,7 +5351,7 @@
         <v>21.890026176704744</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ref="A40:B40" si="25">A26</f>
         <v>0.97634214872487946</v>
@@ -5380,7 +5377,7 @@
         <v>21.935174027772398</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ref="A41:B41" si="26">A27</f>
         <v>0.93837805375029748</v>
@@ -5406,7 +5403,7 @@
         <v>22.269707379225359</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ref="A42:B42" si="27">A28</f>
         <v>0.88829547648156171</v>
@@ -5432,7 +5429,7 @@
         <v>22.757474237604725</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ref="A43:B43" si="28">A29</f>
         <v>0.90292344979945249</v>
@@ -5458,7 +5455,7 @@
         <v>22.81658512351088</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ref="A44:B44" si="29">A30</f>
         <v>0.84636338287969515</v>
@@ -5484,7 +5481,7 @@
         <v>23.463136805005675</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ref="A45:B45" si="30">A31</f>
         <v>0</v>
@@ -5510,7 +5507,7 @@
         <v>29.108351782333798</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ref="A46:B53" si="31">E24</f>
         <v>1</v>
@@ -5536,7 +5533,7 @@
         <v>24.751070718823051</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="31"/>
         <v>0.98121944944687556</v>
@@ -5562,7 +5559,7 @@
         <v>25.163773502660572</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="31"/>
         <v>0.98812816225023958</v>
@@ -5588,7 +5585,7 @@
         <v>25.16213745442521</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="31"/>
         <v>0.96271224594803184</v>
@@ -5614,7 +5611,7 @@
         <v>25.657924555863929</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="31"/>
         <v>0.94090343881314076</v>
@@ -5640,7 +5637,7 @@
         <v>26.230925963607362</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="31"/>
         <v>0.92718784838350199</v>
@@ -5666,7 +5663,7 @@
         <v>26.769750991088628</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="31"/>
         <v>0.89242989452019728</v>
@@ -5692,7 +5689,7 @@
         <v>27.775279145462569</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -5718,7 +5715,7 @@
         <v>39.695110212724998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ref="A54:B61" si="34">I24</f>
         <v>0.99180346489892901</v>
@@ -5744,7 +5741,7 @@
         <v>28.534886467503462</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="34"/>
         <v>0.99783727787799326</v>
@@ -5770,7 +5767,7 @@
         <v>28.586956192058175</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="34"/>
         <v>0.99547464026571031</v>
@@ -5796,7 +5793,7 @@
         <v>28.752724590502407</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -5822,7 +5819,7 @@
         <v>28.824303495467216</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="34"/>
         <v>0.97602377176921085</v>
@@ -5848,7 +5845,7 @@
         <v>29.550605934452552</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="34"/>
         <v>0.95479183799576073</v>
@@ -5874,7 +5871,7 @@
         <v>30.328700541354657</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="34"/>
         <v>0.92121057916426685</v>
@@ -5900,7 +5897,7 @@
         <v>31.524007096105343</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5926,7 +5923,7 @@
         <v>46.017903551833598</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ref="A62:B69" si="37">M24</f>
         <v>1</v>
@@ -5952,7 +5949,7 @@
         <v>31.260701113357612</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="37"/>
         <v>0.99866606077485365</v>
@@ -5978,7 +5975,7 @@
         <v>31.37334814892094</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="37"/>
         <v>0.98153007226726019</v>
@@ -6004,7 +6001,7 @@
         <v>31.629174746944933</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="37"/>
         <v>0.95786364502557653</v>
@@ -6030,7 +6027,7 @@
         <v>31.975131144262988</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="37"/>
         <v>0.97673668626042531</v>
@@ -6056,7 +6053,7 @@
         <v>31.966800292583123</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="37"/>
         <v>0.92035210132074907</v>
@@ -6082,7 +6079,7 @@
         <v>32.804899009844846</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="37"/>
         <v>0.84625983963412221</v>
@@ -6108,7 +6105,7 @@
         <v>33.919957802234862</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="37"/>
         <v>0</v>
@@ -6134,7 +6131,7 @@
         <v>42.189976577790603</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D71">
         <f>SUM(D38:D69)</f>
         <v>2.8104193568239286</v>
@@ -6154,12 +6151,12 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6167,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21.628806109025501</v>
       </c>
@@ -6217,7 +6214,7 @@
         <v>0.60406788284592305</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>21.812493984021501</v>
       </c>
@@ -6247,7 +6244,7 @@
         <v>0.61113623331271871</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>21.805756088170099</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>0.61645279744696735</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>22.089710270478299</v>
       </c>
@@ -6307,7 +6304,7 @@
         <v>0.62238985419073944</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22.4643051945968</v>
       </c>
@@ -6337,7 +6334,7 @@
         <v>0.63623667666524542</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>22.354894600057701</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>0.65439876899326366</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>22.7779382038694</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>0.68427782663613912</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>29.108351782333798</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>0.99805515536464851</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>31.245869028138699</v>
       </c>
@@ -6457,7 +6454,7 @@
         <v>0.60418893993907397</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>31.260467802483401</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>0.61091230767243732</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>31.448005903680102</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>0.61581088789660621</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>31.707013828729099</v>
       </c>
@@ -6547,7 +6544,7 @@
         <v>0.62233808161015236</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>31.500465235665899</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>0.63586232725941205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32.117544197388199</v>
       </c>
@@ -6607,7 +6604,7 @@
         <v>0.65430706283730145</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>32.928417877883597</v>
       </c>
@@ -6637,7 +6634,7 @@
         <v>0.68339407265265562</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>42.189976577790603</v>
       </c>
@@ -6667,7 +6664,7 @@
         <v>0.99805515536464851</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>A10-A3</f>
         <v>7.4795456733082979</v>
@@ -6677,7 +6674,7 @@
         <v>14.965829242467997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>A18-A11</f>
         <v>10.944107549651903</v>
